--- a/src/cli-service/excel2i18n/template/i18n.xlsx
+++ b/src/cli-service/excel2i18n/template/i18n.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="13610"/>
+    <workbookView windowWidth="28130" windowHeight="14210"/>
   </bookViews>
   <sheets>
-    <sheet name="宝箱" sheetId="10" r:id="rId1"/>
+    <sheet name="i18n" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
